--- a/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-23-10-0-39-1021735959414699-北京出发青岛旅游线路推荐_要多少钱【最低报价】价格-去哪儿网-采集的数据-后羿采集器.xlsx
+++ b/Python 数据实验/实验测试2.0/数据源/数据集来源-去哪网/2019-12-23-10-0-39-1021735959414699-北京出发青岛旅游线路推荐_要多少钱【最低报价】价格-去哪儿网-采集的数据-后羿采集器.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="151">
   <si>
     <t>标题</t>
   </si>
@@ -469,25 +472,368 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts x14ac:knownFonts="1" count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -495,24 +841,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -834,15 +1466,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -863,8 +1501,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -874,8 +1518,14 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -885,8 +1535,14 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -896,8 +1552,14 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -907,8 +1569,14 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -918,8 +1586,14 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -929,8 +1603,14 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -940,8 +1620,14 @@
       <c r="C9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -951,8 +1637,14 @@
       <c r="C10" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -962,8 +1654,14 @@
       <c r="C11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -973,8 +1671,14 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -984,8 +1688,14 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -995,8 +1705,14 @@
       <c r="C14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -1006,8 +1722,14 @@
       <c r="C15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1017,8 +1739,14 @@
       <c r="C16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1028,8 +1756,14 @@
       <c r="C17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -1039,8 +1773,14 @@
       <c r="C18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1050,8 +1790,14 @@
       <c r="C19" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1061,8 +1807,14 @@
       <c r="C20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1072,8 +1824,14 @@
       <c r="C21" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -1083,8 +1841,14 @@
       <c r="C22" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -1094,8 +1858,14 @@
       <c r="C23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -1105,8 +1875,14 @@
       <c r="C24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -1116,8 +1892,14 @@
       <c r="C25" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -1127,8 +1909,14 @@
       <c r="C26" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -1138,8 +1926,14 @@
       <c r="C27" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -1149,8 +1943,14 @@
       <c r="C28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -1160,8 +1960,14 @@
       <c r="C29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>40</v>
+      </c>
+      <c r="E29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -1171,8 +1977,14 @@
       <c r="C30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>40</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1182,8 +1994,14 @@
       <c r="C31" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>40</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1193,8 +2011,14 @@
       <c r="C32" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1204,8 +2028,14 @@
       <c r="C33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>40</v>
+      </c>
+      <c r="E33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -1215,8 +2045,14 @@
       <c r="C34" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -1226,8 +2062,14 @@
       <c r="C35" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -1237,8 +2079,14 @@
       <c r="C36" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -1248,8 +2096,14 @@
       <c r="C37" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>40</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -1259,8 +2113,14 @@
       <c r="C38" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -1270,8 +2130,14 @@
       <c r="C39" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>40</v>
+      </c>
+      <c r="E39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -1281,8 +2147,14 @@
       <c r="C40" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>40</v>
+      </c>
+      <c r="E40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -1292,8 +2164,14 @@
       <c r="C41" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>40</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -1303,8 +2181,14 @@
       <c r="C42" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -1314,8 +2198,14 @@
       <c r="C43" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -1325,8 +2215,14 @@
       <c r="C44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>40</v>
+      </c>
+      <c r="E44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -1336,8 +2232,14 @@
       <c r="C45" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>40</v>
+      </c>
+      <c r="E45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -1347,8 +2249,14 @@
       <c r="C46" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -1358,8 +2266,14 @@
       <c r="C47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -1369,8 +2283,14 @@
       <c r="C48" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -1380,8 +2300,14 @@
       <c r="C49" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -1391,8 +2317,14 @@
       <c r="C50" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>40</v>
+      </c>
+      <c r="E50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -1402,9 +2334,16 @@
       <c r="C51" t="s">
         <v>150</v>
       </c>
+      <c r="D51">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>